--- a/config_11.10/banner_style_ui.xlsx
+++ b/config_11.10/banner_style_ui.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="186">
   <si>
     <t>id|行号，从1开始，连续就行</t>
   </si>
@@ -649,10 +649,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>"act_014_jhs","panel"</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>LoginUp</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -860,7 +856,24 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>act_034_ldfd,"panel"</t>
+    <t>双十一狂欢</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_act_base","panel"</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_act_base","panel"</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_014_jhs","panel"</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_030_cwlb","panel"</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -960,7 +973,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1021,6 +1034,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1053,7 +1072,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1157,6 +1176,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1511,11 +1536,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N83"/>
+  <dimension ref="A1:N84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2040,7 +2065,7 @@
         <v>41</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
@@ -2049,7 +2074,7 @@
         <v>4</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>22</v>
@@ -3481,7 +3506,7 @@
         <v>125</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>120</v>
+        <v>182</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>124</v>
@@ -3513,7 +3538,7 @@
         <v>119</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>129</v>
@@ -3577,10 +3602,10 @@
         <v>134</v>
       </c>
       <c r="H68" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="J68" s="9" t="s">
         <v>135</v>
-      </c>
-      <c r="J68" s="9" t="s">
-        <v>136</v>
       </c>
       <c r="K68">
         <v>1591054200</v>
@@ -3597,7 +3622,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -3606,7 +3631,7 @@
         <v>-100</v>
       </c>
       <c r="H69" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J69" s="9" t="s">
         <v>111</v>
@@ -3626,7 +3651,7 @@
         <v>69</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70">
@@ -3636,7 +3661,7 @@
         <v>100</v>
       </c>
       <c r="G70" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H70" s="9" t="s">
         <v>120</v>
@@ -3659,7 +3684,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -3668,10 +3693,10 @@
         <v>-1000</v>
       </c>
       <c r="G71" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H71" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J71" s="9" t="s">
         <v>111</v>
@@ -3691,7 +3716,7 @@
         <v>71</v>
       </c>
       <c r="C72" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -3700,10 +3725,10 @@
         <v>1</v>
       </c>
       <c r="H72" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="J72" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="J72" s="9" t="s">
-        <v>145</v>
       </c>
       <c r="K72">
         <v>-1</v>
@@ -3720,7 +3745,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3729,13 +3754,13 @@
         <v>100</v>
       </c>
       <c r="G73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H73" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="J73" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="J73" s="9" t="s">
-        <v>150</v>
       </c>
       <c r="K73">
         <v>1597707000</v>
@@ -3752,7 +3777,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -3761,10 +3786,10 @@
         <v>3</v>
       </c>
       <c r="G74" t="s">
+        <v>151</v>
+      </c>
+      <c r="H74" s="22" t="s">
         <v>152</v>
-      </c>
-      <c r="H74" s="22" t="s">
-        <v>153</v>
       </c>
       <c r="J74" s="9" t="s">
         <v>111</v>
@@ -3784,7 +3809,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -3793,10 +3818,10 @@
         <v>100</v>
       </c>
       <c r="G75" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H75" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J75" s="9" t="s">
         <v>111</v>
@@ -3816,7 +3841,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -3825,10 +3850,10 @@
         <v>100</v>
       </c>
       <c r="G76" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H76" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J76" s="9" t="s">
         <v>111</v>
@@ -3848,7 +3873,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3857,10 +3882,10 @@
         <v>100</v>
       </c>
       <c r="G77" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H77" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J77" s="9" t="s">
         <v>111</v>
@@ -3880,7 +3905,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3889,10 +3914,10 @@
         <v>100</v>
       </c>
       <c r="G78" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H78" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J78" s="9" t="s">
         <v>111</v>
@@ -3912,7 +3937,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -3921,10 +3946,10 @@
         <v>100</v>
       </c>
       <c r="G79" s="30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H79" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J79" s="9" t="s">
         <v>111</v>
@@ -3944,7 +3969,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -3953,10 +3978,10 @@
         <v>100</v>
       </c>
       <c r="G80" s="30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H80" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J80" s="9" t="s">
         <v>111</v>
@@ -3976,7 +4001,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -3985,10 +4010,10 @@
         <v>100</v>
       </c>
       <c r="G81" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H81" s="31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J81" s="9" t="s">
         <v>111</v>
@@ -4008,7 +4033,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E82" s="32">
         <v>1</v>
@@ -4017,10 +4042,10 @@
         <v>100</v>
       </c>
       <c r="G82" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H82" s="33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J82" s="34" t="s">
         <v>111</v>
@@ -4040,7 +4065,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E83" s="3">
         <v>1</v>
@@ -4049,7 +4074,7 @@
         <v>100</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>22</v>
@@ -4059,6 +4084,35 @@
       </c>
       <c r="L83" s="3">
         <v>1604937599</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" s="35" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="35">
+        <v>83</v>
+      </c>
+      <c r="B84" s="35">
+        <v>83</v>
+      </c>
+      <c r="C84" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="E84" s="35">
+        <v>1</v>
+      </c>
+      <c r="F84" s="35">
+        <v>100</v>
+      </c>
+      <c r="H84" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="J84" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="K84" s="35">
+        <v>1604966400</v>
+      </c>
+      <c r="L84" s="35">
+        <v>1605542399</v>
       </c>
     </row>
   </sheetData>
@@ -4069,12 +4123,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <commentList sheetStid="5">
     <comment s:ref="E1" rgbClr="FF0000">
@@ -4091,7 +4139,37 @@
 </comments>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="7" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -4099,62 +4177,38 @@
 </settings>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="7" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>